--- a/wages2022Q1.xlsx
+++ b/wages2022Q1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901E98B5-1DAF-4105-9D65-BAAE6259F789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A1A7D9-709C-4D9A-882F-BD535A47BF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-900" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F55E950-DBBD-4013-B069-36AC2D384167}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,22 +494,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>136.5</v>
+        <v>141.1</v>
       </c>
       <c r="D2">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="E2">
-        <v>1.3808860000000001</v>
+        <v>1.293218</v>
       </c>
       <c r="F2">
-        <v>137.72462100000001</v>
+        <v>140.77476100000001</v>
       </c>
       <c r="G2">
-        <v>-0.1808860000000001</v>
+        <v>0.80678200000000011</v>
       </c>
       <c r="H2">
-        <v>-1.2246210000000133</v>
+        <v>0.32523899999998207</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -520,22 +520,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>138.1</v>
+        <v>142.5</v>
       </c>
       <c r="D3">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="E3">
-        <v>1.5749070000000001</v>
+        <v>1.644145</v>
       </c>
       <c r="F3">
-        <v>140.61742899999999</v>
+        <v>144.60357400000001</v>
       </c>
       <c r="G3">
-        <v>-0.27490700000000001</v>
+        <v>0.45585500000000012</v>
       </c>
       <c r="H3">
-        <v>-2.5174289999999928</v>
+        <v>-2.1035740000000089</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -546,22 +546,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>136.30000000000001</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="D4">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="E4">
-        <v>1.2704610000000001</v>
+        <v>1.208853</v>
       </c>
       <c r="F4">
-        <v>136.95854800000001</v>
+        <v>139.53714500000001</v>
       </c>
       <c r="G4">
-        <v>-7.0461000000000107E-2</v>
+        <v>1.191147</v>
       </c>
       <c r="H4">
-        <v>-0.65854799999999614</v>
+        <v>1.2628550000000018</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -572,22 +572,22 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>138.30000000000001</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="D5">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="E5">
-        <v>1.952987</v>
+        <v>1.9783109999999999</v>
       </c>
       <c r="F5">
-        <v>140.068084</v>
+        <v>143.362516</v>
       </c>
       <c r="G5">
-        <v>-0.75298700000000007</v>
+        <v>0.82168899999999989</v>
       </c>
       <c r="H5">
-        <v>-1.7680839999999876</v>
+        <v>-6.2515999999988026E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -598,22 +598,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>135.19999999999999</v>
+        <v>140.4</v>
       </c>
       <c r="D6">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="E6">
-        <v>1.952987</v>
+        <v>1.9783109999999999</v>
       </c>
       <c r="F6">
-        <v>135.02402900000001</v>
+        <v>137.373819</v>
       </c>
       <c r="G6">
-        <v>-0.75298700000000007</v>
+        <v>0.42168899999999998</v>
       </c>
       <c r="H6">
-        <v>0.17597099999997567</v>
+        <v>3.0261810000000082</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -624,22 +624,22 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>140.80000000000001</v>
+        <v>146.1</v>
       </c>
       <c r="D7">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="E7">
-        <v>2.8129309999999998</v>
+        <v>2.5712679999999999</v>
       </c>
       <c r="F7">
-        <v>143.09528299999999</v>
+        <v>146.84675300000001</v>
       </c>
       <c r="G7">
-        <v>-1.0129309999999998</v>
+        <v>0.22873199999999994</v>
       </c>
       <c r="H7">
-        <v>-2.2952829999999835</v>
+        <v>-0.74675300000001243</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -650,23 +650,26 @@
         <v>6</v>
       </c>
       <c r="C8" s="2">
-        <v>136</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="D8">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="E8">
-        <v>0.85869200000000001</v>
+        <v>1.0077370000000001</v>
       </c>
       <c r="F8">
-        <v>136.23658800000001</v>
+        <v>139.626566</v>
       </c>
       <c r="G8">
-        <v>0.44130800000000003</v>
+        <v>1.7922629999999997</v>
       </c>
       <c r="H8">
-        <v>-0.23658800000001179</v>
-      </c>
+        <v>1.1734340000000145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
